--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P19_trail7 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P19_trail7 Features.xlsx
@@ -3109,7 +3109,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z17"/>
+  <dimension ref="A1:X17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3120,29 +3120,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="21" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="19" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
-    <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="19" bestFit="1" customWidth="1" min="26" max="26"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="19" bestFit="1" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3163,115 +3161,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -3288,72 +3276,66 @@
         <v>3.835728697587279e-07</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>0.3068483206109254</v>
+        <v>1.434899356573372e-06</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>-0.6852135843606604</v>
+        <v>1.313396400452565e-05</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>1.434899356573372e-06</v>
+        <v>-0.003145802184089608</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>1.313396400452565e-05</v>
+        <v>0.2589760206203847</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>-0.003145802184089608</v>
+        <v>0.06696499245437024</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.2589760206203847</v>
+        <v>1.485709125474292</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.06696499245437024</v>
+        <v>1.447476475033068</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.388012346385582</v>
+        <v>3.457204344323904</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>1.447476475033068</v>
+        <v>1.95142559857616e-13</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>3.457204344323904</v>
+        <v>4388914.179381246</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>1.95142559857616e-13</v>
+        <v>2.351302457886657e-05</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>4388914.179381246</v>
+        <v>3.758946765329802</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>2.351302457886657e-05</v>
+        <v>0.000160561844886114</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>3.758946765329802</v>
+        <v>11.70680877937771</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>0.000160561844886114</v>
+        <v>1.082537303508756</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>11.70680877937771</v>
+        <v>0.02200489997619565</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.082537303508756</v>
+        <v>2.756009172255723</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.02200489997619565</v>
+        <v>0.9349392842712001</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>2.756009172255723</v>
+        <v>1.858311121161789</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9349392842712001</v>
+        <v>8</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>1.858311121161789</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>0.1678524542730276</v>
       </c>
     </row>
@@ -3368,72 +3350,66 @@
         <v>3.851127674115949e-07</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>0.3075705611702889</v>
+        <v>1.434899356573372e-06</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>-0.7031320663522722</v>
+        <v>1.313528277080124e-05</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>1.434899356573372e-06</v>
+        <v>0.008344655076891555</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>1.313528277080124e-05</v>
+        <v>0.2261020814311584</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>0.008344655076891555</v>
+        <v>0.05115157860385121</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.2261020814311584</v>
+        <v>1.478181202311993</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.05115157860385121</v>
+        <v>1.427725105461869</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.378930076225735</v>
+        <v>3.582750891253192</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>1.427725105461869</v>
+        <v>1.817058344455384e-13</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>3.582750891253192</v>
+        <v>4679810.154381426</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>1.817058344455384e-13</v>
+        <v>2.19506791774082e-05</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>4679810.154381426</v>
+        <v>3.979470991819682</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>2.19506791774082e-05</v>
+        <v>0.0001811095136445855</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>3.979470991819682</v>
+        <v>10.87298961263486</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>0.0001811095136445855</v>
+        <v>1.312615964908324</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>10.87298961263486</v>
+        <v>0.02141111137556038</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.312615964908324</v>
+        <v>2.912019309879028</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.02141111137556038</v>
+        <v>0.9349654536329387</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>2.912019309879028</v>
+        <v>1.881443239588233</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9349654536329387</v>
+        <v>8</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>1.881443239588233</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>0.1537194405042852</v>
       </c>
     </row>
@@ -3448,72 +3424,66 @@
         <v>3.887125615831864e-07</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>0.2906465543726572</v>
+        <v>1.434899356573372e-06</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>-0.7692567672484567</v>
+        <v>1.313963270434398e-05</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>1.434899356573372e-06</v>
+        <v>0.01328086339268845</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>1.313963270434398e-05</v>
+        <v>0.2140527450057841</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>0.01328086339268845</v>
+        <v>0.04597995654331963</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.2140527450057841</v>
+        <v>1.507829035251879</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.04597995654331963</v>
+        <v>1.57636543704383</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.409751585418644</v>
+        <v>3.615727832480775</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>1.57636543704383</v>
+        <v>1.784064835729772e-13</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>3.615727832480775</v>
+        <v>4613674.102687484</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>1.784064835729772e-13</v>
+        <v>2.238562353149535e-05</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>4613674.102687484</v>
+        <v>3.79755839794565</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>2.238562353149535e-05</v>
+        <v>0.0001968627115528985</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>3.79755839794565</v>
+        <v>9.529474177491497</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.0001968627115528985</v>
+        <v>1.583822660323424</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>9.529474177491497</v>
+        <v>0.01787727570116281</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.583822660323424</v>
+        <v>2.89977761693264</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.01787727570116281</v>
+        <v>0.9377751787650896</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>2.89977761693264</v>
+        <v>1.885241778954373</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9377751787650896</v>
+        <v>7</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>1.885241778954373</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>0.1415740029991931</v>
       </c>
     </row>
@@ -3528,72 +3498,66 @@
         <v>3.914746873840507e-07</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>0.2552719367116369</v>
+        <v>1.434899356573372e-06</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>-0.8345825028898508</v>
+        <v>1.314523258490768e-05</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>1.434899356573372e-06</v>
+        <v>0.01493288323542358</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>1.314523258490768e-05</v>
+        <v>0.2101748524335129</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>0.01493288323542358</v>
+        <v>0.04439186843493546</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.2101748524335129</v>
+        <v>1.511639454483132</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.04439186843493546</v>
+        <v>1.507899611893284</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.416772968312241</v>
+        <v>3.544144726321384</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>1.507899611893284</v>
+        <v>1.856860174041821e-13</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>3.544144726321384</v>
+        <v>4346217.680326954</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>1.856860174041821e-13</v>
+        <v>2.383966520128173e-05</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>4346217.680326954</v>
+        <v>3.507536103017307</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>2.383966520128173e-05</v>
+        <v>0.0001698917307948206</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>3.507536103017307</v>
+        <v>9.43103999572531</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0.0001698917307948206</v>
+        <v>1.35710616018866</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>9.43103999572531</v>
+        <v>0.01511093766617745</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.35710616018866</v>
+        <v>2.875675242848596</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.01511093766617745</v>
+        <v>0.9361349596212627</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>2.875675242848596</v>
+        <v>1.890090452669926</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9361349596212627</v>
+        <v>7</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>1.890090452669926</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>0.1477418670549615</v>
       </c>
     </row>
@@ -3608,72 +3572,66 @@
         <v>3.931641707818414e-07</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>0.2147412751445693</v>
+        <v>1.434899356573372e-06</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>-0.8804399594588355</v>
+        <v>1.315101921524958e-05</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>1.434899356573372e-06</v>
+        <v>0.01425891677128679</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>1.315101921524958e-05</v>
+        <v>0.2095913633582284</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>0.01425891677128679</v>
+        <v>0.0441310618997581</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.2095913633582284</v>
+        <v>1.523734177772863</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.0441310618997581</v>
+        <v>1.532320336458814</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.429696699092653</v>
+        <v>3.534079266559726</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>1.532320336458814</v>
+        <v>1.867452334427421e-13</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>3.534079266559726</v>
+        <v>4319244.730483348</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>1.867452334427421e-13</v>
+        <v>2.411049347588981e-05</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>4319244.730483348</v>
+        <v>3.483895739761094</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>2.411049347588981e-05</v>
+        <v>0.0001621379517398406</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>3.483895739761094</v>
+        <v>10.82627692937381</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>0.0001621379517398406</v>
+        <v>1.104186917124343</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>10.82627692937381</v>
+        <v>0.01900390917360865</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.104186917124343</v>
+        <v>2.715694028480539</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.01900390917360865</v>
+        <v>0.9372433712567007</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>2.715694028480539</v>
+        <v>1.856730577286863</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9372433712567007</v>
+        <v>7</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>1.856730577286863</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>0.1583019567110638</v>
       </c>
     </row>
@@ -3688,72 +3646,66 @@
         <v>3.942455761749837e-07</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>0.1753121073876651</v>
+        <v>1.434899356573372e-06</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>-0.9120981278903999</v>
+        <v>1.31565204935893e-05</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>1.434899356573372e-06</v>
+        <v>0.01403093969539455</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>1.31565204935893e-05</v>
+        <v>0.2091034991109378</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>0.01403093969539455</v>
+        <v>0.04392081330832669</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.2091034991109378</v>
+        <v>1.548479137566557</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.04392081330832669</v>
+        <v>1.48038456551609</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.457814530236093</v>
+        <v>3.431725801996344</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>1.48038456551609</v>
+        <v>1.98050953564715e-13</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>3.431725801996344</v>
+        <v>4057511.052631729</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>1.98050953564715e-13</v>
+        <v>2.596915662709334e-05</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>4057511.052631729</v>
+        <v>3.260591265271843</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>2.596915662709334e-05</v>
+        <v>0.0001643640548143091</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>3.260591265271843</v>
+        <v>11.9587961007288</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>0.0001643640548143091</v>
+        <v>1.055535706561184</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>11.9587961007288</v>
+        <v>0.02350616438519338</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.055535706561184</v>
+        <v>2.695666154609042</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.02350616438519338</v>
+        <v>0.940788870189997</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>2.695666154609042</v>
+        <v>1.853141407358524</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.940788870189997</v>
+        <v>4</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>1.853141407358524</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>0.1614136522903986</v>
       </c>
     </row>
@@ -3768,72 +3720,66 @@
         <v>3.950719905253886e-07</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>0.1326898081764321</v>
+        <v>1.434899356573372e-06</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>-0.9369702188008651</v>
+        <v>1.316254076802071e-05</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>1.434899356573372e-06</v>
+        <v>0.01714788018567625</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>1.316254076802071e-05</v>
+        <v>0.2077300869438387</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>0.01714788018567625</v>
+        <v>0.04344237725496628</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>0.2077300869438387</v>
+        <v>1.533365194609471</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>0.04344237725496628</v>
+        <v>1.435177661256545</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>1.446854734900726</v>
+        <v>3.377486651311005</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>1.435177661256545</v>
+        <v>2.044630407735674e-13</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>3.377486651311005</v>
+        <v>3975276.535055457</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>2.044630407735674e-13</v>
+        <v>2.630732845830264e-05</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>3975276.535055457</v>
+        <v>3.231093351785109</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>2.630732845830264e-05</v>
+        <v>0.0001790306849710563</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>3.231093351785109</v>
+        <v>11.96108531114772</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>0.0001790306849710563</v>
+        <v>1.204060065103495</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>11.96108531114772</v>
+        <v>0.02561348358987267</v>
       </c>
       <c r="T8" s="2" t="n">
-        <v>1.204060065103495</v>
+        <v>2.888604933249837</v>
       </c>
       <c r="U8" s="2" t="n">
-        <v>0.02561348358987267</v>
+        <v>0.9390860744090612</v>
       </c>
       <c r="V8" s="2" t="n">
-        <v>2.888604933249837</v>
+        <v>1.855449636236698</v>
       </c>
       <c r="W8" s="2" t="n">
-        <v>0.9390860744090612</v>
+        <v>4</v>
       </c>
       <c r="X8" s="2" t="n">
-        <v>1.855449636236698</v>
-      </c>
-      <c r="Y8" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="Z8" s="2" t="n">
         <v>0.1552390335473109</v>
       </c>
     </row>
@@ -3848,72 +3794,66 @@
         <v>3.955198505913175e-07</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>0.08000871609977264</v>
+        <v>1.434899356573372e-06</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>-0.953208377276753</v>
+        <v>1.317042805388245e-05</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>1.434899356573372e-06</v>
+        <v>0.02281353169310908</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>1.317042805388245e-05</v>
+        <v>0.2046465000553753</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>0.02281353169310908</v>
+        <v>0.04239558394626461</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>0.2046465000553753</v>
+        <v>1.512452171890216</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>0.04239558394626461</v>
+        <v>1.416428774447017</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>1.422120322013909</v>
+        <v>3.469536799558296</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>1.416428774447017</v>
+        <v>1.937577584154437e-13</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>3.469536799558296</v>
+        <v>4239707.601104841</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>1.937577584154437e-13</v>
+        <v>2.45529466997985e-05</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>4239707.601104841</v>
+        <v>3.482819063633141</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>2.45529466997985e-05</v>
+        <v>0.0002162325596300881</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>3.482819063633141</v>
+        <v>10.54112204320353</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>0.0002162325596300881</v>
+        <v>1.58719506532275</v>
       </c>
       <c r="S9" s="2" t="n">
-        <v>10.54112204320353</v>
+        <v>0.02402673577116872</v>
       </c>
       <c r="T9" s="2" t="n">
-        <v>1.58719506532275</v>
+        <v>2.894860179820114</v>
       </c>
       <c r="U9" s="2" t="n">
-        <v>0.02402673577116872</v>
+        <v>0.9364439817759637</v>
       </c>
       <c r="V9" s="2" t="n">
-        <v>2.894860179820114</v>
+        <v>1.859168943736553</v>
       </c>
       <c r="W9" s="2" t="n">
-        <v>0.9364439817759637</v>
+        <v>5</v>
       </c>
       <c r="X9" s="2" t="n">
-        <v>1.859168943736553</v>
-      </c>
-      <c r="Y9" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z9" s="2" t="n">
         <v>0.143101185012537</v>
       </c>
     </row>
@@ -3928,72 +3868,66 @@
         <v>3.948751206898907e-07</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>0.01922902075083089</v>
+        <v>1.434899356573372e-06</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>-0.9490008339560605</v>
+        <v>1.318050120761616e-05</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>1.434899356573372e-06</v>
+        <v>0.02787299501515198</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>1.318050120761616e-05</v>
+        <v>0.201695186046949</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>0.02787299501515198</v>
+        <v>0.04145434034233494</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>0.201695186046949</v>
+        <v>1.534771142308373</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>0.04145434034233494</v>
+        <v>1.408489069162012</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>1.446065065762933</v>
+        <v>3.584062480819269</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>1.408489069162012</v>
+        <v>1.695597699442083e-13</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>3.584062480819269</v>
+        <v>5055648.475020398</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>1.695597699442083e-13</v>
+        <v>2.101815946809705e-05</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>5055648.475020398</v>
+        <v>4.333876759514864</v>
       </c>
       <c r="P10" s="2" t="n">
-        <v>2.101815946809705e-05</v>
+        <v>0.0001828747545747417</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>4.333876759514864</v>
+        <v>9.157822415302068</v>
       </c>
       <c r="R10" s="2" t="n">
-        <v>0.0001828747545747417</v>
+        <v>1.67395725689635</v>
       </c>
       <c r="S10" s="2" t="n">
-        <v>9.157822415302068</v>
+        <v>0.01533692138772059</v>
       </c>
       <c r="T10" s="2" t="n">
-        <v>1.67395725689635</v>
+        <v>2.960386934035578</v>
       </c>
       <c r="U10" s="2" t="n">
-        <v>0.01533692138772059</v>
+        <v>0.9376384792152375</v>
       </c>
       <c r="V10" s="2" t="n">
-        <v>2.960386934035578</v>
+        <v>1.851557181345751</v>
       </c>
       <c r="W10" s="2" t="n">
-        <v>0.9376384792152375</v>
+        <v>5</v>
       </c>
       <c r="X10" s="2" t="n">
-        <v>1.851557181345751</v>
-      </c>
-      <c r="Y10" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z10" s="2" t="n">
         <v>0.1464181444816598</v>
       </c>
     </row>
@@ -4008,72 +3942,66 @@
         <v>3.925323765658606e-07</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>-0.04285722503804131</v>
+        <v>1.434899356573372e-06</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>-0.9187404020416969</v>
+        <v>1.319224558165314e-05</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>1.434899356573372e-06</v>
+        <v>0.0316193207006184</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>1.319224558165314e-05</v>
+        <v>0.200501863304652</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>0.0316193207006184</v>
+        <v>0.04119837469483741</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>0.200501863304652</v>
+        <v>1.564620239831278</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>0.04119837469483741</v>
+        <v>1.536300584841937</v>
       </c>
       <c r="K11" s="2" t="n">
-        <v>1.473248942570879</v>
+        <v>3.526426622657485</v>
       </c>
       <c r="L11" s="2" t="n">
-        <v>1.536300584841937</v>
+        <v>1.589439862501803e-13</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>3.526426622657485</v>
+        <v>5404550.358991249</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>1.589439862501803e-13</v>
+        <v>1.984688348053003e-05</v>
       </c>
       <c r="O11" s="2" t="n">
-        <v>5404550.358991249</v>
+        <v>4.64262105383933</v>
       </c>
       <c r="P11" s="2" t="n">
-        <v>1.984688348053003e-05</v>
+        <v>0.0001570631283447361</v>
       </c>
       <c r="Q11" s="2" t="n">
-        <v>4.64262105383933</v>
+        <v>9.861672516708374</v>
       </c>
       <c r="R11" s="2" t="n">
-        <v>0.0001570631283447361</v>
+        <v>1.183892001262646</v>
       </c>
       <c r="S11" s="2" t="n">
-        <v>9.861672516708374</v>
+        <v>0.01527479521250922</v>
       </c>
       <c r="T11" s="2" t="n">
-        <v>1.183892001262646</v>
+        <v>2.79338541680888</v>
       </c>
       <c r="U11" s="2" t="n">
-        <v>0.01527479521250922</v>
+        <v>0.9436877172344724</v>
       </c>
       <c r="V11" s="2" t="n">
-        <v>2.79338541680888</v>
+        <v>1.860908300751128</v>
       </c>
       <c r="W11" s="2" t="n">
-        <v>0.9436877172344724</v>
+        <v>8</v>
       </c>
       <c r="X11" s="2" t="n">
-        <v>1.860908300751128</v>
-      </c>
-      <c r="Y11" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z11" s="2" t="n">
         <v>0.1581145524926948</v>
       </c>
     </row>
@@ -4088,72 +4016,66 @@
         <v>3.881664485293231e-07</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>-0.1005366875039679</v>
+        <v>1.434899356573372e-06</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>-0.8652040883726504</v>
+        <v>1.32052838128152e-05</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>1.434899356573372e-06</v>
+        <v>0.03499577471066455</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>1.32052838128152e-05</v>
+        <v>0.2006811286801796</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>0.03499577471066455</v>
+        <v>0.04149527778896196</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>0.2006811286801796</v>
+        <v>1.599480911041012</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>0.04149527778896196</v>
+        <v>1.478176601101938</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>1.502274573142508</v>
+        <v>3.560680414518342</v>
       </c>
       <c r="L12" s="2" t="n">
-        <v>1.478176601101938</v>
+        <v>1.559006092391637e-13</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>3.560680414518342</v>
+        <v>5419097.676497476</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>1.559006092391637e-13</v>
+        <v>2.030861233524175e-05</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>5419097.676497476</v>
+        <v>4.578273891209614</v>
       </c>
       <c r="P12" s="2" t="n">
-        <v>2.030861233524175e-05</v>
+        <v>0.0001623654526505117</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>4.578273891209614</v>
+        <v>10.90532432423036</v>
       </c>
       <c r="R12" s="2" t="n">
-        <v>0.0001623654526505117</v>
+        <v>1.096150829277607</v>
       </c>
       <c r="S12" s="2" t="n">
-        <v>10.90532432423036</v>
+        <v>0.01930948983385182</v>
       </c>
       <c r="T12" s="2" t="n">
-        <v>1.096150829277607</v>
+        <v>2.631377337885512</v>
       </c>
       <c r="U12" s="2" t="n">
-        <v>0.01930948983385182</v>
+        <v>0.9512236402773441</v>
       </c>
       <c r="V12" s="2" t="n">
-        <v>2.631377337885512</v>
+        <v>1.822646278955689</v>
       </c>
       <c r="W12" s="2" t="n">
-        <v>0.9512236402773441</v>
+        <v>8</v>
       </c>
       <c r="X12" s="2" t="n">
-        <v>1.822646278955689</v>
-      </c>
-      <c r="Y12" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z12" s="2" t="n">
         <v>0.1604603278696233</v>
       </c>
     </row>
@@ -4168,72 +4090,66 @@
         <v>3.812899387452384e-07</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>-0.1464036871998239</v>
+        <v>1.434899356573372e-06</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>-0.7941618380791846</v>
+        <v>1.321918779253073e-05</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>1.434899356573372e-06</v>
+        <v>0.03689047809276413</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>1.321918779253073e-05</v>
+        <v>0.2032592778059062</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>0.03689047809276413</v>
+        <v>0.04267289437096067</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>0.2032592778059062</v>
+        <v>1.62658372194281</v>
       </c>
       <c r="J13" s="2" t="n">
-        <v>0.04267289437096067</v>
+        <v>1.557737583433411</v>
       </c>
       <c r="K13" s="2" t="n">
-        <v>1.529910261906531</v>
+        <v>3.76403637536425</v>
       </c>
       <c r="L13" s="2" t="n">
-        <v>1.557737583433411</v>
+        <v>1.395102703457221e-13</v>
       </c>
       <c r="M13" s="2" t="n">
-        <v>3.76403637536425</v>
+        <v>5909350.390714753</v>
       </c>
       <c r="N13" s="2" t="n">
-        <v>1.395102703457221e-13</v>
+        <v>1.880218164568465e-05</v>
       </c>
       <c r="O13" s="2" t="n">
-        <v>5909350.390714753</v>
+        <v>4.871757519420681</v>
       </c>
       <c r="P13" s="2" t="n">
-        <v>1.880218164568465e-05</v>
+        <v>0.000157617069400017</v>
       </c>
       <c r="Q13" s="2" t="n">
-        <v>4.871757519420681</v>
+        <v>11.36854147676963</v>
       </c>
       <c r="R13" s="2" t="n">
-        <v>0.000157617069400017</v>
+        <v>1.057635497541</v>
       </c>
       <c r="S13" s="2" t="n">
-        <v>11.36854147676963</v>
+        <v>0.02037101879772103</v>
       </c>
       <c r="T13" s="2" t="n">
-        <v>1.057635497541</v>
+        <v>2.699946241148118</v>
       </c>
       <c r="U13" s="2" t="n">
-        <v>0.02037101879772103</v>
+        <v>0.9506801767384229</v>
       </c>
       <c r="V13" s="2" t="n">
-        <v>2.699946241148118</v>
+        <v>1.814869254616063</v>
       </c>
       <c r="W13" s="2" t="n">
-        <v>0.9506801767384229</v>
+        <v>8</v>
       </c>
       <c r="X13" s="2" t="n">
-        <v>1.814869254616063</v>
-      </c>
-      <c r="Y13" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z13" s="2" t="n">
         <v>0.164969034410868</v>
       </c>
     </row>
@@ -4248,72 +4164,66 @@
         <v>3.717877084404648e-07</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>-0.1720948784309538</v>
+        <v>1.434899356573372e-06</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>-0.7158891546052333</v>
+        <v>1.323314611697156e-05</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>1.434899356573372e-06</v>
+        <v>0.03683566798287449</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>1.323314611697156e-05</v>
+        <v>0.2092873798372737</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>0.03683566798287449</v>
+        <v>0.04515555383247419</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>0.2092873798372737</v>
+        <v>1.647864862483552</v>
       </c>
       <c r="J14" s="2" t="n">
-        <v>0.04515555383247419</v>
+        <v>1.466641665300749</v>
       </c>
       <c r="K14" s="2" t="n">
-        <v>1.551955517298662</v>
+        <v>3.888135147246659</v>
       </c>
       <c r="L14" s="2" t="n">
-        <v>1.466641665300749</v>
+        <v>1.307468093948924e-13</v>
       </c>
       <c r="M14" s="2" t="n">
-        <v>3.888135147246659</v>
+        <v>6065648.965074554</v>
       </c>
       <c r="N14" s="2" t="n">
-        <v>1.307468093948924e-13</v>
+        <v>1.830243295511305e-05</v>
       </c>
       <c r="O14" s="2" t="n">
-        <v>6065648.965074554</v>
+        <v>4.810449341748154</v>
       </c>
       <c r="P14" s="2" t="n">
-        <v>1.830243295511305e-05</v>
+        <v>0.0001644133661289021</v>
       </c>
       <c r="Q14" s="2" t="n">
-        <v>4.810449341748154</v>
+        <v>11.27378552276561</v>
       </c>
       <c r="R14" s="2" t="n">
-        <v>0.0001644133661289021</v>
+        <v>1.293218285837999</v>
       </c>
       <c r="S14" s="2" t="n">
-        <v>11.27378552276561</v>
+        <v>0.02089664946964896</v>
       </c>
       <c r="T14" s="2" t="n">
-        <v>1.293218285837999</v>
+        <v>2.949398999653978</v>
       </c>
       <c r="U14" s="2" t="n">
-        <v>0.02089664946964896</v>
+        <v>0.9531639801038413</v>
       </c>
       <c r="V14" s="2" t="n">
-        <v>2.949398999653978</v>
+        <v>1.830604844982642</v>
       </c>
       <c r="W14" s="2" t="n">
-        <v>0.9531639801038413</v>
+        <v>8</v>
       </c>
       <c r="X14" s="2" t="n">
-        <v>1.830604844982642</v>
-      </c>
-      <c r="Y14" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z14" s="2" t="n">
         <v>0.1665036265405432</v>
       </c>
     </row>
@@ -4328,72 +4238,66 @@
         <v>3.603143102416794e-07</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>-0.1725037988253891</v>
+        <v>1.434899356573372e-06</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>-0.6419508418239874</v>
+        <v>1.324637709813133e-05</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>1.434899356573372e-06</v>
+        <v>0.03524848949725998</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>1.324637709813133e-05</v>
+        <v>0.2179043974890166</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>0.03524848949725998</v>
+        <v>0.04872249262276627</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>0.2179043974890166</v>
+        <v>1.65810746243064</v>
       </c>
       <c r="J15" s="2" t="n">
-        <v>0.04872249262276627</v>
+        <v>1.412899590070625</v>
       </c>
       <c r="K15" s="2" t="n">
-        <v>1.559933980210906</v>
+        <v>4.469640774497884</v>
       </c>
       <c r="L15" s="2" t="n">
-        <v>1.412899590070625</v>
+        <v>9.893923848081509e-14</v>
       </c>
       <c r="M15" s="2" t="n">
-        <v>4.469640774497884</v>
+        <v>8012614.669247808</v>
       </c>
       <c r="N15" s="2" t="n">
-        <v>9.893923848081509e-14</v>
+        <v>1.395704713260584e-05</v>
       </c>
       <c r="O15" s="2" t="n">
-        <v>8012614.669247808</v>
+        <v>6.352096379266383</v>
       </c>
       <c r="P15" s="2" t="n">
-        <v>1.395704713260584e-05</v>
+        <v>0.0001981548776486876</v>
       </c>
       <c r="Q15" s="2" t="n">
-        <v>6.352096379266383</v>
+        <v>10.77991361850096</v>
       </c>
       <c r="R15" s="2" t="n">
-        <v>0.0001981548776486876</v>
+        <v>1.660755803701938</v>
       </c>
       <c r="S15" s="2" t="n">
-        <v>10.77991361850096</v>
+        <v>0.0230268922445329</v>
       </c>
       <c r="T15" s="2" t="n">
-        <v>1.660755803701938</v>
+        <v>3.037070973368189</v>
       </c>
       <c r="U15" s="2" t="n">
-        <v>0.0230268922445329</v>
+        <v>0.9533021797087632</v>
       </c>
       <c r="V15" s="2" t="n">
-        <v>3.037070973368189</v>
+        <v>1.821336032187289</v>
       </c>
       <c r="W15" s="2" t="n">
-        <v>0.9533021797087632</v>
+        <v>15</v>
       </c>
       <c r="X15" s="2" t="n">
-        <v>1.821336032187289</v>
-      </c>
-      <c r="Y15" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z15" s="2" t="n">
         <v>0.1717785582586169</v>
       </c>
     </row>
@@ -4408,72 +4312,66 @@
         <v>3.476660399634237e-07</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>-0.1446941612969581</v>
+        <v>1.43438303350833e-06</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>-0.5856673486214365</v>
+        <v>1.325856458714358e-05</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>1.43438303350833e-06</v>
+        <v>0.03361458653781098</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>1.325856458714358e-05</v>
+        <v>0.2274664969051286</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>0.03361458653781098</v>
+        <v>0.05286955452109458</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>0.2274664969051286</v>
+        <v>1.690927666881049</v>
       </c>
       <c r="J16" s="2" t="n">
-        <v>0.05286955452109458</v>
+        <v>1.498953361784298</v>
       </c>
       <c r="K16" s="2" t="n">
-        <v>1.593245094173893</v>
+        <v>4.191685796885716</v>
       </c>
       <c r="L16" s="2" t="n">
-        <v>1.498953361784298</v>
+        <v>5.901733192939334e-14</v>
       </c>
       <c r="M16" s="2" t="n">
-        <v>4.191685796885716</v>
+        <v>13313761.32132541</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>5.901733192939334e-14</v>
+        <v>8.47161643864337e-06</v>
       </c>
       <c r="O16" s="2" t="n">
-        <v>13313761.32132541</v>
+        <v>10.46119038339725</v>
       </c>
       <c r="P16" s="2" t="n">
-        <v>8.47161643864337e-06</v>
+        <v>0.0001534081144802749</v>
       </c>
       <c r="Q16" s="2" t="n">
-        <v>10.46119038339725</v>
+        <v>9.117707888863309</v>
       </c>
       <c r="R16" s="2" t="n">
-        <v>0.0001534081144802749</v>
+        <v>1.890181177602532</v>
       </c>
       <c r="S16" s="2" t="n">
-        <v>9.117707888863309</v>
+        <v>0.01275321498011436</v>
       </c>
       <c r="T16" s="2" t="n">
-        <v>1.890181177602532</v>
+        <v>3.297361346166711</v>
       </c>
       <c r="U16" s="2" t="n">
-        <v>0.01275321498011436</v>
+        <v>0.9556553131972355</v>
       </c>
       <c r="V16" s="2" t="n">
-        <v>3.297361346166711</v>
+        <v>1.791195660423373</v>
       </c>
       <c r="W16" s="2" t="n">
-        <v>0.9556553131972355</v>
+        <v>15</v>
       </c>
       <c r="X16" s="2" t="n">
-        <v>1.791195660423373</v>
-      </c>
-      <c r="Y16" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z16" s="2" t="n">
         <v>0.1924569621589527</v>
       </c>
     </row>
@@ -4488,72 +4386,66 @@
         <v>3.34413020546086e-07</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>-0.08714342220888835</v>
+        <v>1.41944581400821e-06</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>-0.5614678592387121</v>
+        <v>1.326978467862194e-05</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>1.41944581400821e-06</v>
+        <v>0.0321403897119337</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>1.326978467862194e-05</v>
+        <v>0.2373506690243873</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>0.0321403897119337</v>
+        <v>0.05736753705220098</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>0.2373506690243873</v>
+        <v>1.739858860483437</v>
       </c>
       <c r="J17" s="2" t="n">
-        <v>0.05736753705220098</v>
+        <v>1.780446699476978</v>
       </c>
       <c r="K17" s="2" t="n">
-        <v>1.650038881906902</v>
+        <v>3.74828022451381</v>
       </c>
       <c r="L17" s="2" t="n">
-        <v>1.780446699476978</v>
+        <v>5.523699840885805e-14</v>
       </c>
       <c r="M17" s="2" t="n">
-        <v>3.74828022451381</v>
+        <v>13811770.96706733</v>
       </c>
       <c r="N17" s="2" t="n">
-        <v>5.523699840885805e-14</v>
+        <v>8.29601305680688e-06</v>
       </c>
       <c r="O17" s="2" t="n">
-        <v>13811770.96706733</v>
+        <v>10.53728695412308</v>
       </c>
       <c r="P17" s="2" t="n">
-        <v>8.29601305680688e-06</v>
+        <v>0.0001277603359904224</v>
       </c>
       <c r="Q17" s="2" t="n">
-        <v>10.53728695412308</v>
+        <v>7.933683366764829</v>
       </c>
       <c r="R17" s="2" t="n">
-        <v>0.0001277603359904224</v>
+        <v>1.520873834572661</v>
       </c>
       <c r="S17" s="2" t="n">
-        <v>7.933683366764829</v>
+        <v>0.008041661214535607</v>
       </c>
       <c r="T17" s="2" t="n">
-        <v>1.520873834572661</v>
+        <v>3.247076175589205</v>
       </c>
       <c r="U17" s="2" t="n">
-        <v>0.008041661214535607</v>
+        <v>0.9567787260766595</v>
       </c>
       <c r="V17" s="2" t="n">
-        <v>3.247076175589205</v>
+        <v>1.737705677787267</v>
       </c>
       <c r="W17" s="2" t="n">
-        <v>0.9567787260766595</v>
+        <v>12</v>
       </c>
       <c r="X17" s="2" t="n">
-        <v>1.737705677787267</v>
-      </c>
-      <c r="Y17" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z17" s="2" t="n">
         <v>0.1949330637620524</v>
       </c>
     </row>
@@ -4930,7 +4822,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.411686756918403</v>
+        <v>1.432524277749454</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.598691951357913</v>
@@ -5019,7 +4911,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.416211880114913</v>
+        <v>1.442964623618549</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.593293323942611</v>
@@ -5108,7 +5000,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.418894537235737</v>
+        <v>1.442076082010587</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.607640567320027</v>
@@ -5197,7 +5089,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.404834331667633</v>
+        <v>1.431209166298193</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.593474797453651</v>
@@ -5286,7 +5178,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.4360842207643</v>
+        <v>1.463633570565626</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.644769229219858</v>
@@ -5375,7 +5267,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.41834203939247</v>
+        <v>1.448890949091748</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.607659172689754</v>
@@ -5464,7 +5356,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.435902449123279</v>
+        <v>1.466906016819111</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.600425369527305</v>
@@ -5553,7 +5445,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.45509140097926</v>
+        <v>1.488010682081648</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1.599597284879665</v>
@@ -5642,7 +5534,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.45577259995242</v>
+        <v>1.487753989241088</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1.605660176294588</v>
@@ -5731,7 +5623,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.448022543413412</v>
+        <v>1.477006701211261</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1.599501541512872</v>
@@ -5820,7 +5712,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.451914398264452</v>
+        <v>1.480977163925747</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>1.608681406765884</v>
@@ -5909,7 +5801,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.474145415667614</v>
+        <v>1.504966068429738</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>1.612381071314786</v>
@@ -5998,7 +5890,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.486299856839914</v>
+        <v>1.512679571098378</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1.616882983333365</v>
@@ -6087,7 +5979,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.510489257579343</v>
+        <v>1.539319685433526</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1.607235348561919</v>
@@ -6176,7 +6068,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.534786987932519</v>
+        <v>1.565109773247402</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>1.660625132851955</v>
@@ -6265,7 +6157,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.546453476016737</v>
+        <v>1.567167774053399</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.544845309685806</v>
@@ -6354,7 +6246,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.586670281738627</v>
+        <v>1.607747720494525</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.633067635947833</v>
@@ -6443,7 +6335,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.621286157976312</v>
+        <v>1.640807496219261</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.321503297211573</v>
@@ -6532,7 +6424,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.668201066589119</v>
+        <v>1.679992337519516</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.69884054301652</v>
@@ -6621,7 +6513,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.655447327333754</v>
+        <v>1.673601509240574</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.565098009264263</v>
@@ -6710,7 +6602,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.697165391904113</v>
+        <v>1.711350616990659</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.628939641379064</v>
@@ -6799,7 +6691,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.698122729385469</v>
+        <v>1.716023807528591</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.589136048394474</v>
@@ -6888,7 +6780,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.704386434733614</v>
+        <v>1.725392550531914</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.710603592582519</v>
@@ -6977,7 +6869,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.673896072950937</v>
+        <v>1.701037837951428</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.869669296315057</v>
@@ -7066,7 +6958,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.681943564670677</v>
+        <v>1.710606905367363</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.619213670162625</v>
@@ -7155,7 +7047,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.681954187947895</v>
+        <v>1.711813822708196</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.603567470335228</v>
@@ -7244,7 +7136,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.648690864967155</v>
+        <v>1.681283400954205</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.621700517479391</v>
@@ -7333,7 +7225,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.684790739341517</v>
+        <v>1.709294922405443</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.59612520091347</v>
@@ -7422,7 +7314,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.669508052019236</v>
+        <v>1.704789606492055</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.521573282560428</v>
@@ -7511,7 +7403,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.647838668568974</v>
+        <v>1.684522759625384</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.605961603928757</v>
@@ -7600,7 +7492,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.612956566912371</v>
+        <v>1.654935110236495</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.556139765590978</v>
@@ -7689,7 +7581,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.619221146445985</v>
+        <v>1.662850574091</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.576079595490946</v>
@@ -7778,7 +7670,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.622195200019025</v>
+        <v>1.666309740376554</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.607791476580914</v>
@@ -7867,7 +7759,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.624780765439127</v>
+        <v>1.672756113734903</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.57295569228343</v>
@@ -7956,7 +7848,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.662370398809538</v>
+        <v>1.708323023012253</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.533962429263369</v>
@@ -8045,7 +7937,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.645490196952027</v>
+        <v>1.695946355506707</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.545812980625388</v>
@@ -8134,7 +8026,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.654175316132591</v>
+        <v>1.704087451109524</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.785881372084138</v>
@@ -8223,7 +8115,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.655319299345586</v>
+        <v>1.702202807881409</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.745140482229662</v>
@@ -8312,7 +8204,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.689821382713802</v>
+        <v>1.732764717612095</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.692385325489028</v>
@@ -8401,7 +8293,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.691821748760158</v>
+        <v>1.734122741111194</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.785870975438518</v>
@@ -8490,7 +8382,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.71119421047611</v>
+        <v>1.750030213080011</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.351017066616822</v>
@@ -8579,7 +8471,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.66556006457546</v>
+        <v>1.708190753647297</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.355673326489019</v>
@@ -8668,7 +8560,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.681665375910221</v>
+        <v>1.724434393357458</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.379976819356905</v>
@@ -8757,7 +8649,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.689814143165915</v>
+        <v>1.730624005261524</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.253756276944151</v>
@@ -8846,7 +8738,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.713705126918955</v>
+        <v>1.756263594610266</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.429351254918354</v>
@@ -8935,7 +8827,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.749766379079571</v>
+        <v>1.790842510595461</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.443826269007733</v>
@@ -9024,7 +8916,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.732241686072691</v>
+        <v>1.776954249826514</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.385639039727563</v>
@@ -9113,7 +9005,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.75675754673752</v>
+        <v>1.791378514634189</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.410898279452347</v>
@@ -9202,7 +9094,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.751973297355014</v>
+        <v>1.792428539913766</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.51255023383509</v>
@@ -9291,7 +9183,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.710491360581178</v>
+        <v>1.744988112428994</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.500050360805214</v>
@@ -9380,7 +9272,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.707975867669431</v>
+        <v>1.745166509327943</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.404807284875889</v>
@@ -9469,7 +9361,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.662371267136554</v>
+        <v>1.704832516113441</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.457608106922088</v>
@@ -9558,7 +9450,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.666712148240857</v>
+        <v>1.709543715871719</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.457591387328528</v>
@@ -9647,7 +9539,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.633469285966408</v>
+        <v>1.676905651327299</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.460951905666996</v>
@@ -9736,7 +9628,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.610507910588325</v>
+        <v>1.654576550921061</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.515633057362271</v>
@@ -9825,7 +9717,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.615161470230031</v>
+        <v>1.662802995045637</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.535630934998651</v>
@@ -9914,7 +9806,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.655409809987504</v>
+        <v>1.703269795502795</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.633967003060049</v>
@@ -10003,7 +9895,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.657250363386002</v>
+        <v>1.70547409911818</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.928963759628046</v>
@@ -10092,7 +9984,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.654566244490709</v>
+        <v>1.702203908798667</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.910387176764284</v>
@@ -10181,7 +10073,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.642433504529713</v>
+        <v>1.690567971104203</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.031014600022607</v>
@@ -10270,7 +10162,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.637049725459307</v>
+        <v>1.684619599412566</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.746679902230026</v>
@@ -10556,7 +10448,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.391949102677375</v>
+        <v>1.416617240374822</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.517791454246438</v>
@@ -10645,7 +10537,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.409118755775481</v>
+        <v>1.434752452084642</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.556306636360312</v>
@@ -10734,7 +10626,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.442221335496692</v>
+        <v>1.464634064481884</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.502419347035193</v>
@@ -10823,7 +10715,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.435348516467897</v>
+        <v>1.461961973031654</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.502488651466823</v>
@@ -10912,7 +10804,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.461837704668602</v>
+        <v>1.486132703028219</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.520224545307592</v>
@@ -11001,7 +10893,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.460918701018117</v>
+        <v>1.484658352309895</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.503058803352344</v>
@@ -11090,7 +10982,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.470932068303376</v>
+        <v>1.491360683640615</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.48682793293339</v>
@@ -11179,7 +11071,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.472558648513925</v>
+        <v>1.492908380363998</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1.488667766141385</v>
@@ -11268,7 +11160,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.476252940457748</v>
+        <v>1.497374115568537</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1.493591911846258</v>
@@ -11357,7 +11249,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.479906611951896</v>
+        <v>1.500048460948244</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1.480431902057802</v>
@@ -11446,7 +11338,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.48325231843363</v>
+        <v>1.508629686201603</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>1.482676790021956</v>
@@ -11535,7 +11427,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.490746779136168</v>
+        <v>1.514531854614124</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>1.484533791573851</v>
@@ -11624,7 +11516,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.502278730056348</v>
+        <v>1.521188126095397</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1.485319178755527</v>
@@ -11713,7 +11605,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.512167239206793</v>
+        <v>1.530222675008973</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1.477395577980187</v>
@@ -11802,7 +11694,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.512136188372335</v>
+        <v>1.529515369656656</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>1.494381572411835</v>
@@ -11891,7 +11783,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.476356198490676</v>
+        <v>1.481797929603397</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.721742227853207</v>
@@ -11980,7 +11872,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.472384258242325</v>
+        <v>1.475533408729092</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.753756231890977</v>
@@ -12069,7 +11961,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.481285189125065</v>
+        <v>1.48529877711853</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.44614626560304</v>
@@ -12158,7 +12050,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.497334599034524</v>
+        <v>1.494381788080254</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.689565286973146</v>
@@ -12247,7 +12139,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.499927067315492</v>
+        <v>1.499317341343279</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.505060013695269</v>
@@ -12336,7 +12228,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.511632318551484</v>
+        <v>1.510818372865077</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.742291377132254</v>
@@ -12425,7 +12317,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.514417869842098</v>
+        <v>1.517965342544272</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.844491177429171</v>
@@ -12514,7 +12406,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.518468646543606</v>
+        <v>1.51931880427937</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.856074959415318</v>
@@ -12603,7 +12495,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.499507000324791</v>
+        <v>1.50651111365464</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.709577229421458</v>
@@ -12692,7 +12584,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.496769559666441</v>
+        <v>1.505729319710816</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.754731183963919</v>
@@ -12781,7 +12673,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.490380431413035</v>
+        <v>1.499296598540794</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.677625038055817</v>
@@ -12870,7 +12762,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.48001168807783</v>
+        <v>1.487753754920691</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.764530463812002</v>
@@ -12959,7 +12851,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.486660177130262</v>
+        <v>1.491292496204561</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.730160043887742</v>
@@ -13048,7 +12940,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.496216313387223</v>
+        <v>1.50721652431977</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.406808530293309</v>
@@ -13137,7 +13029,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.483299457035733</v>
+        <v>1.489441386993436</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.756742665461754</v>
@@ -13226,7 +13118,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.475548351875208</v>
+        <v>1.48485758042697</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.750029769783734</v>
@@ -13315,7 +13207,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.492212954547201</v>
+        <v>1.499378787565355</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.691275894933761</v>
@@ -13404,7 +13296,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.502729801304472</v>
+        <v>1.513023848088989</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.761703945459515</v>
@@ -13493,7 +13385,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.430850931906785</v>
+        <v>1.433011517468309</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>1.695855799452156</v>
@@ -13582,7 +13474,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.395662558661259</v>
+        <v>1.408035016209398</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>1.705095164775506</v>
@@ -13671,7 +13563,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.389192086431514</v>
+        <v>1.399437284771565</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>1.722048333131064</v>
@@ -13760,7 +13652,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.392064496584819</v>
+        <v>1.404174989650268</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>1.735594079905833</v>
@@ -13849,7 +13741,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.391316157074881</v>
+        <v>1.400292783243944</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>1.725160598552725</v>
@@ -13938,7 +13830,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.397824282866519</v>
+        <v>1.406216542208444</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>1.739460974316539</v>
@@ -14027,7 +13919,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.407097228806028</v>
+        <v>1.415817310184728</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>1.723962467599725</v>
@@ -14116,7 +14008,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.41129307540768</v>
+        <v>1.420551569011973</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>1.769324434378256</v>
@@ -14205,7 +14097,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.359258900981343</v>
+        <v>1.370180943048978</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>1.754824698979322</v>
@@ -14294,7 +14186,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.362858204190909</v>
+        <v>1.377600968822845</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>1.783263911453348</v>
@@ -14383,7 +14275,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.358089729171705</v>
+        <v>1.372763781961407</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>1.776052602561446</v>
@@ -14472,7 +14364,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.375697415702724</v>
+        <v>1.394641656046639</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>1.78519941118742</v>
@@ -14561,7 +14453,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.379091661226476</v>
+        <v>1.403522557860613</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>1.807428077540855</v>
@@ -14650,7 +14542,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.370261862049597</v>
+        <v>1.394151436745211</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>1.785366085306718</v>
@@ -14739,7 +14631,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.368992289333198</v>
+        <v>1.389450185283702</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>1.752144222445079</v>
@@ -14828,7 +14720,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.424434591309879</v>
+        <v>1.452840690368465</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>1.907828958046712</v>
@@ -14917,7 +14809,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.430173036400261</v>
+        <v>1.452619426781472</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>1.98422360524608</v>
@@ -15006,7 +14898,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.433082951193527</v>
+        <v>1.460373280516621</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>1.983574847854545</v>
@@ -15095,7 +14987,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.42039053157202</v>
+        <v>1.449811035556066</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.02879282671082</v>
@@ -15184,7 +15076,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.428428699661712</v>
+        <v>1.460880011825938</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.045564700656203</v>
@@ -15273,7 +15165,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.4253958611614</v>
+        <v>1.457963230331972</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.042156292705622</v>
@@ -15362,7 +15254,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.424191450787305</v>
+        <v>1.460824994621724</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.000192673895816</v>
@@ -15451,7 +15343,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.43374104896762</v>
+        <v>1.472357381822133</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.093217915422845</v>
@@ -15540,7 +15432,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.507321092299655</v>
+        <v>1.544669225408735</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.393660129098589</v>
@@ -15629,7 +15521,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.519268801466825</v>
+        <v>1.555197501646221</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.872569120638397</v>
@@ -15718,7 +15610,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.533390579126697</v>
+        <v>1.569369046746053</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.849885729632729</v>
@@ -15807,7 +15699,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.530431913459923</v>
+        <v>1.566841865034378</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.956983151957512</v>
@@ -15896,7 +15788,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.542688371064633</v>
+        <v>1.573156922439299</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.926882614426412</v>
@@ -16182,7 +16074,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.726982402684462</v>
+        <v>1.740178846542481</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.574262260759156</v>
@@ -16271,7 +16163,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.726670564165902</v>
+        <v>1.735751280449716</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.570464338123172</v>
@@ -16360,7 +16252,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.723824448886296</v>
+        <v>1.735260134326718</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.562793716277195</v>
@@ -16449,7 +16341,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.717126804735509</v>
+        <v>1.733405934983378</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.572808736807888</v>
@@ -16538,7 +16430,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.733504194562328</v>
+        <v>1.747890667198115</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.581113158700589</v>
@@ -16627,7 +16519,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.727915174198581</v>
+        <v>1.741225626770195</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.573204573571949</v>
@@ -16716,7 +16608,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.749020460229379</v>
+        <v>1.756525461561311</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.569195609923396</v>
@@ -16805,7 +16697,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.756963229699409</v>
+        <v>1.764480315667043</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1.564485120003462</v>
@@ -16894,7 +16786,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.754894861050785</v>
+        <v>1.76402823709049</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1.560215433715873</v>
@@ -16983,7 +16875,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.749449965403383</v>
+        <v>1.756073681749522</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1.563261869645425</v>
@@ -17072,7 +16964,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.75846526809833</v>
+        <v>1.767397384066875</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>1.563932237569485</v>
@@ -17161,7 +17053,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.761658138266977</v>
+        <v>1.770432786356256</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>1.570628019999077</v>
@@ -17250,7 +17142,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.771986950635001</v>
+        <v>1.775186616404431</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1.58555373244871</v>
@@ -17339,7 +17231,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.773668593971803</v>
+        <v>1.774050404808698</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1.573963128253361</v>
@@ -17428,7 +17320,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.790691998653137</v>
+        <v>1.792226748535387</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>1.606958941628521</v>
@@ -17517,7 +17409,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.77922999290162</v>
+        <v>1.782627834098538</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>4.104779876212392</v>
@@ -17606,7 +17498,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.785942396208213</v>
+        <v>1.792393992043672</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>4.023469451683557</v>
@@ -17695,7 +17587,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.78622365359933</v>
+        <v>1.793026940894768</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.415263369418387</v>
@@ -17784,7 +17676,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.804562188497547</v>
+        <v>1.805247169103353</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.516737086172671</v>
@@ -17873,7 +17765,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.798997793459784</v>
+        <v>1.801717080944841</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>4.203576349573628</v>
@@ -17962,7 +17854,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.805565266822623</v>
+        <v>1.810879569562259</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>4.1926181420623</v>
@@ -18051,7 +17943,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.807419136558901</v>
+        <v>1.816680531615477</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.740734795577141</v>
@@ -18140,7 +18032,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.810743037827803</v>
+        <v>1.819479581554859</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>4.067948145766269</v>
@@ -18229,7 +18121,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.811431086300668</v>
+        <v>1.820264059956864</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.916786284655972</v>
@@ -18318,7 +18210,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.813833928105105</v>
+        <v>1.821945313555746</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.863507019371455</v>
@@ -18407,7 +18299,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.812020014574505</v>
+        <v>1.818560457385573</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.53521869223661</v>
@@ -18496,7 +18388,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.803138478361043</v>
+        <v>1.811567348149252</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.501312966392205</v>
@@ -18585,7 +18477,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.809013633502392</v>
+        <v>1.812150553343926</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.626709678944776</v>
@@ -18674,7 +18566,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.817367578580343</v>
+        <v>1.813514777291021</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.191565294091436</v>
@@ -18763,7 +18655,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.815277989750138</v>
+        <v>1.810817246284232</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.984827475728391</v>
@@ -18852,7 +18744,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.825441833261824</v>
+        <v>1.815438338921238</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.484783408185913</v>
@@ -18941,7 +18833,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.828137197947452</v>
+        <v>1.815573757462865</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.394289530601715</v>
@@ -19030,7 +18922,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.830692186239798</v>
+        <v>1.81799424542666</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.595047738047843</v>
@@ -19119,7 +19011,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.82074586544499</v>
+        <v>1.81113867913096</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.616433604224075</v>
@@ -19208,7 +19100,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.831501226845178</v>
+        <v>1.82216375228235</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.556298580811854</v>
@@ -19297,7 +19189,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.837184513031955</v>
+        <v>1.82771367010503</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.672027222903886</v>
@@ -19386,7 +19278,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.842849202611685</v>
+        <v>1.829855321003661</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.718226994452214</v>
@@ -19475,7 +19367,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.847469279493612</v>
+        <v>1.834364660281214</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.656510958600255</v>
@@ -19564,7 +19456,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.853257622497507</v>
+        <v>1.83173939015155</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.712892169012697</v>
@@ -19653,7 +19545,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.863251930573023</v>
+        <v>1.835329923334037</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.906108897713452</v>
@@ -19742,7 +19634,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.871335570064314</v>
+        <v>1.838069006554328</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.76863761898052</v>
@@ -19831,7 +19723,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.865146392592707</v>
+        <v>1.838191679290656</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.952209738351962</v>
@@ -19920,7 +19812,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.868082190908443</v>
+        <v>1.842458013142453</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.643176471007155</v>
@@ -20009,7 +19901,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.874070350206708</v>
+        <v>1.85419315298747</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.958320766845939</v>
@@ -20098,7 +19990,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.877658582406453</v>
+        <v>1.862496235237719</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.922986523132672</v>
@@ -20187,7 +20079,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.879423971237027</v>
+        <v>1.864623133688011</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.471352899107186</v>
@@ -20276,7 +20168,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.878461989860471</v>
+        <v>1.865442113552849</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.916366966404718</v>
@@ -20365,7 +20257,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.886563543570347</v>
+        <v>1.868541389401864</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.839720743573454</v>
@@ -20454,7 +20346,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.898433115762483</v>
+        <v>1.883681760701102</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>4.16706856650551</v>
@@ -20543,7 +20435,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.889665654123717</v>
+        <v>1.876348129716595</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.886932904815528</v>
@@ -20632,7 +20524,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.890193399640519</v>
+        <v>1.875684971561749</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.544560458396412</v>
@@ -20721,7 +20613,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.884670616287046</v>
+        <v>1.876154253567313</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>4.101795451160717</v>
@@ -20810,7 +20702,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.881495442465123</v>
+        <v>1.87286331951699</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.760776788667989</v>
@@ -20899,7 +20791,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.874909069305472</v>
+        <v>1.87061866637554</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.984143039883345</v>
@@ -20988,7 +20880,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.865344885572473</v>
+        <v>1.870813018210984</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>4.278703507717555</v>
@@ -21077,7 +20969,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.869168135183694</v>
+        <v>1.881067394809878</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>4.067259616765135</v>
@@ -21166,7 +21058,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.874121571169707</v>
+        <v>1.886622771080764</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.733377579203283</v>
@@ -21255,7 +21147,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.871748187190088</v>
+        <v>1.88808460467839</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>4.77087407572764</v>
@@ -21344,7 +21236,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.873057603752876</v>
+        <v>1.885954534567857</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>4.107027702643555</v>
@@ -21433,7 +21325,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.874548069745447</v>
+        <v>1.88812543559458</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>4.498998784956123</v>
@@ -21522,7 +21414,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.870994996320612</v>
+        <v>1.884013957644783</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.957211469659774</v>
@@ -21808,7 +21700,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.773384558771062</v>
+        <v>1.76056955645516</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.391058614260489</v>
@@ -21897,7 +21789,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.767761333862536</v>
+        <v>1.753338737551957</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.389337876622462</v>
@@ -21986,7 +21878,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.76301952592651</v>
+        <v>1.747704600177065</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.391172919850332</v>
@@ -22075,7 +21967,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.768165043819149</v>
+        <v>1.749494523316055</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.384515202054432</v>
@@ -22164,7 +22056,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.775824186322676</v>
+        <v>1.757536232378852</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.38640633973029</v>
@@ -22253,7 +22145,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.781448063789713</v>
+        <v>1.762070376850352</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.386183322182346</v>
@@ -22342,7 +22234,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.7917707111727</v>
+        <v>1.769944100895489</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.387696322032181</v>
@@ -22431,7 +22323,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.793139860277849</v>
+        <v>1.774875353621662</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1.387319929613977</v>
@@ -22520,7 +22412,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.797861067471013</v>
+        <v>1.783157834548586</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1.392109987279924</v>
@@ -22609,7 +22501,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.804132486893891</v>
+        <v>1.789253344968717</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1.39385248795895</v>
@@ -22698,7 +22590,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.808578899056548</v>
+        <v>1.795058352479888</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>1.395814475861721</v>
@@ -22787,7 +22679,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.806280478522936</v>
+        <v>1.795212062193566</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>1.397931584931185</v>
@@ -22876,7 +22768,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.808809159462875</v>
+        <v>1.79368312476142</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1.396237541385155</v>
@@ -22965,7 +22857,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.796888387852074</v>
+        <v>1.777275249565477</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1.398374320301222</v>
@@ -23054,7 +22946,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.799545467093024</v>
+        <v>1.783676318294644</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>1.402931610504742</v>
@@ -23143,7 +23035,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.764698692707029</v>
+        <v>1.746923669702498</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.794983167933744</v>
@@ -23232,7 +23124,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.777842186464599</v>
+        <v>1.760946077372813</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.913536815029818</v>
@@ -23321,7 +23213,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.787140193087717</v>
+        <v>1.764565413394046</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.70331912230177</v>
@@ -23410,7 +23302,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.794028862696347</v>
+        <v>1.777323486323963</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.8557839715037</v>
@@ -23499,7 +23391,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.787632188400116</v>
+        <v>1.776378529879433</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>4.040975684920798</v>
@@ -23588,7 +23480,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.787044138654681</v>
+        <v>1.776269816168668</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.547167712099853</v>
@@ -23677,7 +23569,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.775289684298283</v>
+        <v>1.77126528913871</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>4.040189241164836</v>
@@ -23766,7 +23658,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.778743937014765</v>
+        <v>1.771304153146854</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>4.00850673765403</v>
@@ -23855,7 +23747,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.780843543807678</v>
+        <v>1.772999061450871</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>4.098731043673698</v>
@@ -23944,7 +23836,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.780986142207684</v>
+        <v>1.77106860788214</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>4.198131443651466</v>
@@ -24033,7 +23925,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.769152888813985</v>
+        <v>1.757856326230884</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>4.33333223801381</v>
@@ -24122,7 +24014,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.77725068521373</v>
+        <v>1.769213908451362</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>4.170917368034728</v>
@@ -24211,7 +24103,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.780578129495645</v>
+        <v>1.774636994611227</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>4.126637770400371</v>
@@ -24300,7 +24192,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.793218151042833</v>
+        <v>1.787343684569253</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.572032058778132</v>
@@ -24389,7 +24281,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.796069193813662</v>
+        <v>1.791886529410403</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.935018171105566</v>
@@ -24478,7 +24370,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.794304466943151</v>
+        <v>1.792202957435342</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.675826191990937</v>
@@ -24567,7 +24459,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.795551969997896</v>
+        <v>1.793100178408243</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.792626009924588</v>
@@ -24656,7 +24548,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.800070429894291</v>
+        <v>1.799211297336421</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.671836573680098</v>
@@ -24745,7 +24637,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.792202255603933</v>
+        <v>1.787886261555496</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.657108537638799</v>
@@ -24834,7 +24726,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.800062879453833</v>
+        <v>1.795970140991921</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.744490040012996</v>
@@ -24923,7 +24815,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.801507303841895</v>
+        <v>1.79860017013768</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.259251572638241</v>
@@ -25012,7 +24904,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.814646203872716</v>
+        <v>1.806599871185226</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>4.073959089777459</v>
@@ -25101,7 +24993,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.807146885239155</v>
+        <v>1.799546139042622</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>4.026888522243364</v>
@@ -25190,7 +25082,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.810390110930899</v>
+        <v>1.798091899794212</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.442452607620508</v>
@@ -25279,7 +25171,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.817729123375382</v>
+        <v>1.804541698821073</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.219687744674146</v>
@@ -25368,7 +25260,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.826070575790313</v>
+        <v>1.815647599350283</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.993410418877028</v>
@@ -25457,7 +25349,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.778186619626624</v>
+        <v>1.779714443675635</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.814927556302203</v>
@@ -25546,7 +25438,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.780075182604749</v>
+        <v>1.781197524249725</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.748196290444703</v>
@@ -25635,7 +25527,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.788098649363319</v>
+        <v>1.789549961752557</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.824904022676109</v>
@@ -25724,7 +25616,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.795589680389621</v>
+        <v>1.798433350300915</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.885725245684493</v>
@@ -25813,7 +25705,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.800577884238914</v>
+        <v>1.799316051984693</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.886075197663565</v>
@@ -25902,7 +25794,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.786580285142398</v>
+        <v>1.791649116718965</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.948997703837866</v>
@@ -25991,7 +25883,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.797026129103109</v>
+        <v>1.802512100244765</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.906699523302077</v>
@@ -26080,7 +25972,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.806758714917249</v>
+        <v>1.814312461407091</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.973859700834161</v>
@@ -26169,7 +26061,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.797969539098643</v>
+        <v>1.804362749825724</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.925950876544153</v>
@@ -26258,7 +26150,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.798451440820517</v>
+        <v>1.803903662191651</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.914263265191654</v>
@@ -26347,7 +26239,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.795636948816864</v>
+        <v>1.804484424785321</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.054252926728535</v>
@@ -26436,7 +26328,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.801392548728585</v>
+        <v>1.80901080281731</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.933046605960823</v>
@@ -26525,7 +26417,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.804197895113519</v>
+        <v>1.815784639206446</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.062794355856426</v>
@@ -26614,7 +26506,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.800458640552392</v>
+        <v>1.81739308311581</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.004678205400406</v>
@@ -26703,7 +26595,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.802758604701096</v>
+        <v>1.817491025388057</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.05209614439242</v>
@@ -26792,7 +26684,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.844725871628459</v>
+        <v>1.852211961684369</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.264549444000025</v>
@@ -26881,7 +26773,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.843251633405694</v>
+        <v>1.849973471231621</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.733110510232052</v>
@@ -26970,7 +26862,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.839430036189248</v>
+        <v>1.848002861541413</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.51433292101874</v>
@@ -27059,7 +26951,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.832659261615667</v>
+        <v>1.839752231962946</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.610466996345705</v>
@@ -27148,7 +27040,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.837097526390901</v>
+        <v>1.843237815772545</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.80607520561052</v>
@@ -27434,7 +27326,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.646241232017486</v>
+        <v>1.649555579887316</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.35298732519686</v>
@@ -27523,7 +27415,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.648014668729156</v>
+        <v>1.652105376618552</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.35431907010741</v>
@@ -27612,7 +27504,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.639499472180364</v>
+        <v>1.642649259589612</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.352758421416384</v>
@@ -27701,7 +27593,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.645651678777092</v>
+        <v>1.646455473075114</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.350762704759641</v>
@@ -27790,7 +27682,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.670046711937785</v>
+        <v>1.671591268404243</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.347202944846329</v>
@@ -27879,7 +27771,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.677960793919535</v>
+        <v>1.674852517049143</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.349392048426952</v>
@@ -27968,7 +27860,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.681628093603337</v>
+        <v>1.672943616360275</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.351652200118787</v>
@@ -28057,7 +27949,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.693421641139608</v>
+        <v>1.684114293496672</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1.346614943927978</v>
@@ -28146,7 +28038,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.697457680607494</v>
+        <v>1.687037932728957</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1.350451050252593</v>
@@ -28235,7 +28127,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.681358336548663</v>
+        <v>1.669591764715746</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1.348573833760826</v>
@@ -28324,7 +28216,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.68558131659305</v>
+        <v>1.674750966590304</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>1.349914198606097</v>
@@ -28413,7 +28305,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.695014385027928</v>
+        <v>1.681807143994912</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>1.350538034866982</v>
@@ -28502,7 +28394,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.697399912022681</v>
+        <v>1.678363694843719</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1.352349126712633</v>
@@ -28591,7 +28483,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.698001332506183</v>
+        <v>1.680459656650404</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1.357477790271118</v>
@@ -28680,7 +28572,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.687178702816339</v>
+        <v>1.672249444883968</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>1.363690162519957</v>
@@ -28769,7 +28661,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.617771101507616</v>
+        <v>1.584977024693584</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.09209667616479</v>
@@ -28858,7 +28750,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.614735227107675</v>
+        <v>1.578251914835549</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.164131942324502</v>
@@ -28947,7 +28839,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.622274556558959</v>
+        <v>1.587102676390777</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.320376899946604</v>
@@ -29036,7 +28928,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.634293913894133</v>
+        <v>1.59661938730696</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.177147915280597</v>
@@ -29125,7 +29017,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.633943677188476</v>
+        <v>1.594669242611037</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.094311780967977</v>
@@ -29214,7 +29106,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.647330796793939</v>
+        <v>1.608819349933603</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.881660036805849</v>
@@ -29303,7 +29195,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.646106983835366</v>
+        <v>1.610786715859686</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.413719794335757</v>
@@ -29392,7 +29284,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.650108745916415</v>
+        <v>1.614012667127031</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.155932642265427</v>
@@ -29481,7 +29373,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.648134081764766</v>
+        <v>1.614364568131202</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.259802238006401</v>
@@ -29570,7 +29462,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.664379081818985</v>
+        <v>1.629922191624631</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.251677354292354</v>
@@ -29659,7 +29551,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.655596758091676</v>
+        <v>1.623570987727397</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.238879396687257</v>
@@ -29748,7 +29640,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.654703954188352</v>
+        <v>1.623869160479752</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.200176808564617</v>
@@ -29837,7 +29729,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.655491703300687</v>
+        <v>1.62620849705115</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.371552277792042</v>
@@ -29926,7 +29818,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.65768869543814</v>
+        <v>1.623474497130489</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.03486672185867</v>
@@ -30015,7 +29907,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.652624268298038</v>
+        <v>1.615732869991789</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.311829423870611</v>
@@ -30104,7 +29996,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.651287190746979</v>
+        <v>1.623379403180498</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.943231776905046</v>
@@ -30193,7 +30085,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.644891196713217</v>
+        <v>1.613111710444123</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.019201457020893</v>
@@ -30282,7 +30174,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.647993255038069</v>
+        <v>1.614936919108736</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.318629774438529</v>
@@ -30371,7 +30263,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.644863723274198</v>
+        <v>1.608703450019128</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.994501217746487</v>
@@ -30460,7 +30352,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.642211610204993</v>
+        <v>1.609835632865261</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.982290263697273</v>
@@ -30549,7 +30441,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.628427433193669</v>
+        <v>1.59719437350903</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.039183713807672</v>
@@ -30638,7 +30530,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.628944329853629</v>
+        <v>1.600483439670138</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.912110787296221</v>
@@ -30727,7 +30619,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.61170848129061</v>
+        <v>1.589606145015778</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.907544854596766</v>
@@ -30816,7 +30708,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.6055099841973</v>
+        <v>1.583214478465326</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.118221239746202</v>
@@ -30905,7 +30797,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.599583564178374</v>
+        <v>1.577969181515752</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.812989874499528</v>
@@ -30994,7 +30886,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.601133803135772</v>
+        <v>1.584534758343815</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.014827966810077</v>
@@ -31083,7 +30975,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.593097600143003</v>
+        <v>1.576786260924567</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.046530002587414</v>
@@ -31172,7 +31064,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.594504791923232</v>
+        <v>1.580715759971631</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.882194121175119</v>
@@ -31261,7 +31153,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.599716566352062</v>
+        <v>1.584998444078656</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.105437238903553</v>
@@ -31350,7 +31242,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.612336237796095</v>
+        <v>1.59997926895053</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.838141997651319</v>
@@ -31439,7 +31331,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.626257354597065</v>
+        <v>1.613701541330147</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.699799496201133</v>
@@ -31528,7 +31420,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.632451940460518</v>
+        <v>1.625947512877938</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.172805899832932</v>
@@ -31617,7 +31509,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.633633770227787</v>
+        <v>1.632938422176616</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.096005143043526</v>
@@ -31706,7 +31598,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.643128436884156</v>
+        <v>1.643831203250513</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.04558852088106</v>
@@ -31795,7 +31687,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.626334520761035</v>
+        <v>1.622839092121948</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.817551055178153</v>
@@ -31884,7 +31776,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.624226002824004</v>
+        <v>1.627305543037969</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.116753898055872</v>
@@ -31973,7 +31865,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.626243229266323</v>
+        <v>1.631631103207356</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.125028009275997</v>
@@ -32062,7 +31954,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.642401481347521</v>
+        <v>1.64568097271467</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.994652390902428</v>
@@ -32151,7 +32043,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.652564422531513</v>
+        <v>1.654126654802766</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.102675343476197</v>
@@ -32240,7 +32132,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.653962517473666</v>
+        <v>1.658101798197692</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.92766542584246</v>
@@ -32329,7 +32221,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.653386581423882</v>
+        <v>1.657466255490644</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.126808111755475</v>
@@ -32418,7 +32310,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.657811707001665</v>
+        <v>1.663117018722373</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.04912454125497</v>
@@ -32507,7 +32399,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.665983113122562</v>
+        <v>1.668480523685508</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.057351146466046</v>
@@ -32596,7 +32488,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.657215533529363</v>
+        <v>1.664179096028027</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.943142550647734</v>
@@ -32685,7 +32577,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.657948331607157</v>
+        <v>1.665304642193117</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.119609367419661</v>
@@ -32774,7 +32666,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.654585054319258</v>
+        <v>1.659583548762733</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.034026797700246</v>
@@ -33060,7 +32952,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.46592837778158</v>
+        <v>1.493474041138476</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.356078066261445</v>
@@ -33149,7 +33041,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.474784284127819</v>
+        <v>1.50539522157064</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.354333893827856</v>
@@ -33238,7 +33130,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.484284637952926</v>
+        <v>1.513836729563431</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.353044463462085</v>
@@ -33327,7 +33219,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.465330871123898</v>
+        <v>1.496748693397963</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.36430817804105</v>
@@ -33416,7 +33308,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.494433898125854</v>
+        <v>1.525515250215983</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.343856078278954</v>
@@ -33505,7 +33397,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.477070351578891</v>
+        <v>1.51228732141458</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.356220410084078</v>
@@ -33594,7 +33486,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.496480547940942</v>
+        <v>1.533335242436312</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.355549204438213</v>
@@ -33683,7 +33575,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.510701317758202</v>
+        <v>1.547927451334517</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1.351842707121832</v>
@@ -33772,7 +33664,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.512564990347108</v>
+        <v>1.549579434031792</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1.352830981110425</v>
@@ -33861,7 +33753,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.510076275892381</v>
+        <v>1.546289982614638</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1.35396829626601</v>
@@ -33950,7 +33842,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.509850495102814</v>
+        <v>1.545080093391589</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>1.352809226117704</v>
@@ -34039,7 +33931,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.529410749653275</v>
+        <v>1.565506387969432</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>1.349135972039655</v>
@@ -34128,7 +34020,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.534768263721701</v>
+        <v>1.568634829375013</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1.35397106430121</v>
@@ -34217,7 +34109,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.551700392465699</v>
+        <v>1.587373855884207</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1.351027929996772</v>
@@ -34306,7 +34198,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.578578682309629</v>
+        <v>1.618934339185749</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>1.335894871766872</v>
@@ -34395,7 +34287,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.528019037666927</v>
+        <v>1.55735283175136</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.398668394106219</v>
@@ -34484,7 +34376,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.571509996903611</v>
+        <v>1.605222543716194</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.486128776439859</v>
@@ -34573,7 +34465,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.599458142799745</v>
+        <v>1.631827961209659</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.215689926529501</v>
@@ -34662,7 +34554,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.654559130000949</v>
+        <v>1.679021278279193</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.737155733359921</v>
@@ -34751,7 +34643,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.644514593656019</v>
+        <v>1.672691978076222</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.43772479202993</v>
@@ -34840,7 +34732,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.690877124085625</v>
+        <v>1.718493605881846</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.594040189021584</v>
@@ -34929,7 +34821,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.692655239581522</v>
+        <v>1.71948529410614</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.459975381619782</v>
@@ -35018,7 +34910,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.70040229462205</v>
+        <v>1.729870099933908</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.609453961608594</v>
@@ -35107,7 +34999,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.658905027493064</v>
+        <v>1.699366678170734</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.544989351637725</v>
@@ -35196,7 +35088,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.663778696331753</v>
+        <v>1.702855141810635</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.493925847439382</v>
@@ -35285,7 +35177,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.664944296437408</v>
+        <v>1.706199079571576</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.521973160277551</v>
@@ -35374,7 +35266,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.628220030260584</v>
+        <v>1.669535327738285</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.61467654860664</v>
@@ -35463,7 +35355,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.669591484802202</v>
+        <v>1.697619480354484</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.629841868285874</v>
@@ -35552,7 +35444,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.650466364045499</v>
+        <v>1.688936783895664</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.544563744691022</v>
@@ -35641,7 +35533,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.624948689379693</v>
+        <v>1.665484344939544</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.520242246684596</v>
@@ -35730,7 +35622,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.563665810785939</v>
+        <v>1.600964858474512</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.3742775551499</v>
@@ -35819,7 +35711,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.572740188091595</v>
+        <v>1.610373674612459</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.469753644571507</v>
@@ -35908,7 +35800,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.568820514668961</v>
+        <v>1.603270976514416</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.469632020841992</v>
@@ -35997,7 +35889,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.573807916458477</v>
+        <v>1.61327072479323</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.406640842643744</v>
@@ -36086,7 +35978,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.609289324245728</v>
+        <v>1.651993697648839</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.485551571053439</v>
@@ -36175,7 +36067,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.591803825023819</v>
+        <v>1.632545235632312</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.471543700645312</v>
@@ -36264,7 +36156,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.59552126778934</v>
+        <v>1.63735696191033</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.476701561108594</v>
@@ -36353,7 +36245,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.591612456311562</v>
+        <v>1.633138922812805</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.432649065046706</v>
@@ -36442,7 +36334,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.621207263869942</v>
+        <v>1.655692115439389</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.450566963465557</v>
@@ -36531,7 +36423,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.623863693156397</v>
+        <v>1.656279553874864</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.4854078466964</v>
@@ -36620,7 +36512,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.637824447690609</v>
+        <v>1.669683722707602</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.275767366527479</v>
@@ -36709,7 +36601,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.569602495309178</v>
+        <v>1.610105131368076</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.234117010509749</v>
@@ -36798,7 +36690,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.587999597180733</v>
+        <v>1.628599264882785</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.203794202041883</v>
@@ -36887,7 +36779,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.604922470581511</v>
+        <v>1.643538985124076</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.110596118560829</v>
@@ -36976,7 +36868,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.632103320312038</v>
+        <v>1.671987760385123</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.278610782288315</v>
@@ -37065,7 +36957,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.685772296490171</v>
+        <v>1.728328480418272</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.244753635894356</v>
@@ -37154,7 +37046,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.675586795400945</v>
+        <v>1.716985119540662</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.245194965931195</v>
@@ -37243,7 +37135,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.705437122401804</v>
+        <v>1.736419486125461</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.251735579879622</v>
@@ -37332,7 +37224,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.696611549472389</v>
+        <v>1.733766243987043</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.340934386146627</v>
@@ -37421,7 +37313,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.665341578525561</v>
+        <v>1.69335736360475</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.361088569257251</v>
@@ -37510,7 +37402,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.657271254042041</v>
+        <v>1.693193475887645</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.361057539932859</v>
@@ -37599,7 +37491,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.602406064554201</v>
+        <v>1.64116748103017</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.335109450926223</v>
@@ -37688,7 +37580,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.61236544634158</v>
+        <v>1.651459079151727</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.281985316803421</v>
@@ -37777,7 +37669,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.571567843109202</v>
+        <v>1.611398607245836</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.36438912847164</v>
@@ -37866,7 +37758,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.545233760176538</v>
+        <v>1.584328718547397</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.334839861965452</v>
@@ -37955,7 +37847,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.548216209076027</v>
+        <v>1.587552238623442</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.314813412287944</v>
@@ -38044,7 +37936,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.605163235261909</v>
+        <v>1.638870738338783</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.514691555019377</v>
@@ -38133,7 +38025,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.59850662858531</v>
+        <v>1.632721111508025</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.862267591882508</v>
@@ -38222,7 +38114,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.593260945973618</v>
+        <v>1.62421873479127</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.781688337975776</v>
@@ -38311,7 +38203,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.575250653263474</v>
+        <v>1.606410538556552</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.647151719703819</v>
@@ -38400,7 +38292,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.567515910580341</v>
+        <v>1.59893948944745</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.665172417084928</v>
